--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
@@ -774,7 +774,7 @@
 validate4;</t>
   </si>
   <si>
-    <t>PBSignature-JS</t>
+    <t>PB-Signature</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
@@ -701,24 +701,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT056-1235
-};
-validate4
-{
-validate_AppMinimized=appsscreen
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=Signature
-};
-validate3
-{
 validate_Text_Exists=VT056-1402
 };
 validate4
@@ -775,6 +757,24 @@
   </si>
   <si>
     <t>PB-Signature</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=Signature
+};
+validate3
+{
+validate_Text_Exists=VT056-1235
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="204.75" thickBot="1">
+    <row r="20" spans="1:11" ht="217.5" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1815,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_Signature.xlsx
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
